--- a/natmiOut/OldD2/LR-pairs_lrc2p/Jag1-Notch4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Jag1-Notch4.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.23761554217</v>
+        <v>15.2630565</v>
       </c>
       <c r="H2">
-        <v>15.23761554217</v>
+        <v>30.526113</v>
       </c>
       <c r="I2">
-        <v>0.2478663190620499</v>
+        <v>0.233863797955522</v>
       </c>
       <c r="J2">
-        <v>0.2478663190620499</v>
+        <v>0.1906936114921842</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>55.8739169059249</v>
+        <v>55.873922</v>
       </c>
       <c r="N2">
-        <v>55.8739169059249</v>
+        <v>111.747844</v>
       </c>
       <c r="O2">
-        <v>0.5955074734654491</v>
+        <v>0.5825754174893317</v>
       </c>
       <c r="P2">
-        <v>0.5955074734654491</v>
+        <v>0.4843347495294592</v>
       </c>
       <c r="Q2">
-        <v>851.3852646476364</v>
+        <v>852.806828362593</v>
       </c>
       <c r="R2">
-        <v>851.3852646476364</v>
+        <v>3411.227313450372</v>
       </c>
       <c r="S2">
-        <v>0.1476062454218222</v>
+        <v>0.1362432997295789</v>
       </c>
       <c r="T2">
-        <v>0.1476062454218222</v>
+        <v>0.09235954255893504</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.23761554217</v>
+        <v>15.2630565</v>
       </c>
       <c r="H3">
-        <v>15.23761554217</v>
+        <v>30.526113</v>
       </c>
       <c r="I3">
-        <v>0.2478663190620499</v>
+        <v>0.233863797955522</v>
       </c>
       <c r="J3">
-        <v>0.2478663190620499</v>
+        <v>0.1906936114921842</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.659295193964</v>
+        <v>1.743428333333333</v>
       </c>
       <c r="N3">
-        <v>1.659295193964</v>
+        <v>5.230285</v>
       </c>
       <c r="O3">
-        <v>0.01768486520024306</v>
+        <v>0.01817804179120264</v>
       </c>
       <c r="P3">
-        <v>0.01768486520024306</v>
+        <v>0.02266897225724272</v>
       </c>
       <c r="Q3">
-        <v>25.28370223659383</v>
+        <v>26.6100451553675</v>
       </c>
       <c r="R3">
-        <v>25.28370223659383</v>
+        <v>159.660270932205</v>
       </c>
       <c r="S3">
-        <v>0.004383482440292789</v>
+        <v>0.004251185892684848</v>
       </c>
       <c r="T3">
-        <v>0.004383482440292789</v>
+        <v>0.004322828188549745</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.23761554217</v>
+        <v>15.2630565</v>
       </c>
       <c r="H4">
-        <v>15.23761554217</v>
+        <v>30.526113</v>
       </c>
       <c r="I4">
-        <v>0.2478663190620499</v>
+        <v>0.233863797955522</v>
       </c>
       <c r="J4">
-        <v>0.2478663190620499</v>
+        <v>0.1906936114921842</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.531925802148053</v>
+        <v>1.001563</v>
       </c>
       <c r="N4">
-        <v>0.531925802148053</v>
+        <v>3.004689</v>
       </c>
       <c r="O4">
-        <v>0.005669296302273008</v>
+        <v>0.0104429036298341</v>
       </c>
       <c r="P4">
-        <v>0.005669296302273008</v>
+        <v>0.01302284896189067</v>
       </c>
       <c r="Q4">
-        <v>8.105280870092416</v>
+        <v>15.2869126573095</v>
       </c>
       <c r="R4">
-        <v>8.105280870092416</v>
+        <v>91.721475943857</v>
       </c>
       <c r="S4">
-        <v>0.001405227606116501</v>
+        <v>0.00244221710455651</v>
       </c>
       <c r="T4">
-        <v>0.001405227606116501</v>
+        <v>0.002483374100460175</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.23761554217</v>
+        <v>15.2630565</v>
       </c>
       <c r="H5">
-        <v>15.23761554217</v>
+        <v>30.526113</v>
       </c>
       <c r="I5">
-        <v>0.2478663190620499</v>
+        <v>0.233863797955522</v>
       </c>
       <c r="J5">
-        <v>0.2478663190620499</v>
+        <v>0.1906936114921842</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.24420129079091</v>
+        <v>1.365389333333333</v>
       </c>
       <c r="N5">
-        <v>1.24420129079091</v>
+        <v>4.096168</v>
       </c>
       <c r="O5">
-        <v>0.01326077010868691</v>
+        <v>0.014236377766754</v>
       </c>
       <c r="P5">
-        <v>0.01326077010868691</v>
+        <v>0.01775351032553778</v>
       </c>
       <c r="Q5">
-        <v>18.95866092614354</v>
+        <v>20.840014539164</v>
       </c>
       <c r="R5">
-        <v>18.95866092614354</v>
+        <v>125.040087234984</v>
       </c>
       <c r="S5">
-        <v>0.003286898274768284</v>
+        <v>0.003329373373662641</v>
       </c>
       <c r="T5">
-        <v>0.003286898274768284</v>
+        <v>0.003385481000640583</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.23761554217</v>
+        <v>15.2630565</v>
       </c>
       <c r="H6">
-        <v>15.23761554217</v>
+        <v>30.526113</v>
       </c>
       <c r="I6">
-        <v>0.2478663190620499</v>
+        <v>0.233863797955522</v>
       </c>
       <c r="J6">
-        <v>0.2478663190620499</v>
+        <v>0.1906936114921842</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>33.5724741054058</v>
+        <v>34.797061</v>
       </c>
       <c r="N6">
-        <v>33.5724741054058</v>
+        <v>104.391183</v>
       </c>
       <c r="O6">
-        <v>0.3578173920785995</v>
+        <v>0.3628152743506486</v>
       </c>
       <c r="P6">
-        <v>0.3578173920785995</v>
+        <v>0.4524496908538919</v>
       </c>
       <c r="Q6">
-        <v>511.5644532176313</v>
+        <v>531.1095080769466</v>
       </c>
       <c r="R6">
-        <v>511.5644532176313</v>
+        <v>3186.657048461679</v>
       </c>
       <c r="S6">
-        <v>0.08869087987090475</v>
+        <v>0.08484935801591736</v>
       </c>
       <c r="T6">
-        <v>0.08869087987090475</v>
+        <v>0.08627926556745091</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.23761554217</v>
+        <v>15.2630565</v>
       </c>
       <c r="H7">
-        <v>15.23761554217</v>
+        <v>30.526113</v>
       </c>
       <c r="I7">
-        <v>0.2478663190620499</v>
+        <v>0.233863797955522</v>
       </c>
       <c r="J7">
-        <v>0.2478663190620499</v>
+        <v>0.1906936114921842</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.943905765838942</v>
+        <v>1.127115</v>
       </c>
       <c r="N7">
-        <v>0.943905765838942</v>
+        <v>2.25423</v>
       </c>
       <c r="O7">
-        <v>0.01006020284474834</v>
+        <v>0.01175198497222887</v>
       </c>
       <c r="P7">
-        <v>0.01006020284474834</v>
+        <v>0.00977022807197777</v>
       </c>
       <c r="Q7">
-        <v>14.38287316789134</v>
+        <v>17.2032199269975</v>
       </c>
       <c r="R7">
-        <v>14.38287316789134</v>
+        <v>68.81287970798999</v>
       </c>
       <c r="S7">
-        <v>0.002493585448145334</v>
+        <v>0.002748363839121663</v>
       </c>
       <c r="T7">
-        <v>0.002493585448145334</v>
+        <v>0.001863120076147761</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.47650306839706</v>
+        <v>6.993139999999999</v>
       </c>
       <c r="H8">
-        <v>6.47650306839706</v>
+        <v>20.97942</v>
       </c>
       <c r="I8">
-        <v>0.105351586769923</v>
+        <v>0.1071503784340102</v>
       </c>
       <c r="J8">
-        <v>0.105351586769923</v>
+        <v>0.1310563636716983</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>55.8739169059249</v>
+        <v>55.873922</v>
       </c>
       <c r="N8">
-        <v>55.8739169059249</v>
+        <v>111.747844</v>
       </c>
       <c r="O8">
-        <v>0.5955074734654491</v>
+        <v>0.5825754174893317</v>
       </c>
       <c r="P8">
-        <v>0.5955074734654491</v>
+        <v>0.4843347495294592</v>
       </c>
       <c r="Q8">
-        <v>361.867594284585</v>
+        <v>390.73415889508</v>
       </c>
       <c r="R8">
-        <v>361.867594284585</v>
+        <v>2344.40495337048</v>
       </c>
       <c r="S8">
-        <v>0.0627376572629329</v>
+        <v>0.06242317645033335</v>
       </c>
       <c r="T8">
-        <v>0.0627376572629329</v>
+        <v>0.06347515107317372</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.47650306839706</v>
+        <v>6.993139999999999</v>
       </c>
       <c r="H9">
-        <v>6.47650306839706</v>
+        <v>20.97942</v>
       </c>
       <c r="I9">
-        <v>0.105351586769923</v>
+        <v>0.1071503784340102</v>
       </c>
       <c r="J9">
-        <v>0.105351586769923</v>
+        <v>0.1310563636716983</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.659295193964</v>
+        <v>1.743428333333333</v>
       </c>
       <c r="N9">
-        <v>1.659295193964</v>
+        <v>5.230285</v>
       </c>
       <c r="O9">
-        <v>0.01768486520024306</v>
+        <v>0.01817804179120264</v>
       </c>
       <c r="P9">
-        <v>0.01768486520024306</v>
+        <v>0.02266897225724272</v>
       </c>
       <c r="Q9">
-        <v>10.74643041508434</v>
+        <v>12.19203841496667</v>
       </c>
       <c r="R9">
-        <v>10.74643041508434</v>
+        <v>109.7283457347</v>
       </c>
       <c r="S9">
-        <v>0.001863128610657799</v>
+        <v>0.001947784057116614</v>
       </c>
       <c r="T9">
-        <v>0.001863128610657799</v>
+        <v>0.002970913072208842</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.47650306839706</v>
+        <v>6.993139999999999</v>
       </c>
       <c r="H10">
-        <v>6.47650306839706</v>
+        <v>20.97942</v>
       </c>
       <c r="I10">
-        <v>0.105351586769923</v>
+        <v>0.1071503784340102</v>
       </c>
       <c r="J10">
-        <v>0.105351586769923</v>
+        <v>0.1310563636716983</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.531925802148053</v>
+        <v>1.001563</v>
       </c>
       <c r="N10">
-        <v>0.531925802148053</v>
+        <v>3.004689</v>
       </c>
       <c r="O10">
-        <v>0.005669296302273008</v>
+        <v>0.0104429036298341</v>
       </c>
       <c r="P10">
-        <v>0.005669296302273008</v>
+        <v>0.01302284896189067</v>
       </c>
       <c r="Q10">
-        <v>3.445019089771432</v>
+        <v>7.004070277819999</v>
       </c>
       <c r="R10">
-        <v>3.445019089771432</v>
+        <v>63.03663250037999</v>
       </c>
       <c r="S10">
-        <v>0.0005972693613133186</v>
+        <v>0.001118961075886622</v>
       </c>
       <c r="T10">
-        <v>0.0005972693613133186</v>
+        <v>0.001706727229591144</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.47650306839706</v>
+        <v>6.993139999999999</v>
       </c>
       <c r="H11">
-        <v>6.47650306839706</v>
+        <v>20.97942</v>
       </c>
       <c r="I11">
-        <v>0.105351586769923</v>
+        <v>0.1071503784340102</v>
       </c>
       <c r="J11">
-        <v>0.105351586769923</v>
+        <v>0.1310563636716983</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.24420129079091</v>
+        <v>1.365389333333333</v>
       </c>
       <c r="N11">
-        <v>1.24420129079091</v>
+        <v>4.096168</v>
       </c>
       <c r="O11">
-        <v>0.01326077010868691</v>
+        <v>0.014236377766754</v>
       </c>
       <c r="P11">
-        <v>0.01326077010868691</v>
+        <v>0.01775351032553778</v>
       </c>
       <c r="Q11">
-        <v>8.058073477510911</v>
+        <v>9.548358762506664</v>
       </c>
       <c r="R11">
-        <v>8.058073477510911</v>
+        <v>85.93522886255998</v>
       </c>
       <c r="S11">
-        <v>0.001397043172741331</v>
+        <v>0.001525433265237219</v>
       </c>
       <c r="T11">
-        <v>0.001397043172741331</v>
+        <v>0.002326710505672932</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.47650306839706</v>
+        <v>6.993139999999999</v>
       </c>
       <c r="H12">
-        <v>6.47650306839706</v>
+        <v>20.97942</v>
       </c>
       <c r="I12">
-        <v>0.105351586769923</v>
+        <v>0.1071503784340102</v>
       </c>
       <c r="J12">
-        <v>0.105351586769923</v>
+        <v>0.1310563636716983</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.5724741054058</v>
+        <v>34.797061</v>
       </c>
       <c r="N12">
-        <v>33.5724741054058</v>
+        <v>104.391183</v>
       </c>
       <c r="O12">
-        <v>0.3578173920785995</v>
+        <v>0.3628152743506486</v>
       </c>
       <c r="P12">
-        <v>0.3578173920785995</v>
+        <v>0.4524496908538919</v>
       </c>
       <c r="Q12">
-        <v>217.4322315573415</v>
+        <v>243.34071916154</v>
       </c>
       <c r="R12">
-        <v>217.4322315573415</v>
+        <v>2190.06647245386</v>
       </c>
       <c r="S12">
-        <v>0.03769663002935615</v>
+        <v>0.03887579394831122</v>
       </c>
       <c r="T12">
-        <v>0.03769663002935615</v>
+        <v>0.05929641122769514</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.47650306839706</v>
+        <v>6.993139999999999</v>
       </c>
       <c r="H13">
-        <v>6.47650306839706</v>
+        <v>20.97942</v>
       </c>
       <c r="I13">
-        <v>0.105351586769923</v>
+        <v>0.1071503784340102</v>
       </c>
       <c r="J13">
-        <v>0.105351586769923</v>
+        <v>0.1310563636716983</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.943905765838942</v>
+        <v>1.127115</v>
       </c>
       <c r="N13">
-        <v>0.943905765838942</v>
+        <v>2.25423</v>
       </c>
       <c r="O13">
-        <v>0.01006020284474834</v>
+        <v>0.01175198497222887</v>
       </c>
       <c r="P13">
-        <v>0.01006020284474834</v>
+        <v>0.00977022807197777</v>
       </c>
       <c r="Q13">
-        <v>6.113208588733585</v>
+        <v>7.882072991099998</v>
       </c>
       <c r="R13">
-        <v>6.113208588733585</v>
+        <v>47.29243794659999</v>
       </c>
       <c r="S13">
-        <v>0.001059858332921531</v>
+        <v>0.001259229637125124</v>
       </c>
       <c r="T13">
-        <v>0.001059858332921531</v>
+        <v>0.001280450563356555</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.35154521840063</v>
+        <v>8.024555666666666</v>
       </c>
       <c r="H14">
-        <v>5.35154521840063</v>
+        <v>24.073667</v>
       </c>
       <c r="I14">
-        <v>0.08705219073864195</v>
+        <v>0.122953948647977</v>
       </c>
       <c r="J14">
-        <v>0.08705219073864195</v>
+        <v>0.1503858189246111</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>55.8739169059249</v>
+        <v>55.873922</v>
       </c>
       <c r="N14">
-        <v>55.8739169059249</v>
+        <v>111.747844</v>
       </c>
       <c r="O14">
-        <v>0.5955074734654491</v>
+        <v>0.5825754174893317</v>
       </c>
       <c r="P14">
-        <v>0.5955074734654491</v>
+        <v>0.4843347495294592</v>
       </c>
       <c r="Q14">
-        <v>299.0117928512165</v>
+        <v>448.3633974039913</v>
       </c>
       <c r="R14">
-        <v>299.0117928512165</v>
+        <v>2690.180384423948</v>
       </c>
       <c r="S14">
-        <v>0.05184023016640103</v>
+        <v>0.07162994796555706</v>
       </c>
       <c r="T14">
-        <v>0.05184023016640103</v>
+        <v>0.07283707794163409</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.35154521840063</v>
+        <v>8.024555666666666</v>
       </c>
       <c r="H15">
-        <v>5.35154521840063</v>
+        <v>24.073667</v>
       </c>
       <c r="I15">
-        <v>0.08705219073864195</v>
+        <v>0.122953948647977</v>
       </c>
       <c r="J15">
-        <v>0.08705219073864195</v>
+        <v>0.1503858189246111</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.659295193964</v>
+        <v>1.743428333333333</v>
       </c>
       <c r="N15">
-        <v>1.659295193964</v>
+        <v>5.230285</v>
       </c>
       <c r="O15">
-        <v>0.01768486520024306</v>
+        <v>0.01817804179120264</v>
       </c>
       <c r="P15">
-        <v>0.01768486520024306</v>
+        <v>0.02266897225724272</v>
       </c>
       <c r="Q15">
-        <v>8.879793261173189</v>
+        <v>13.99023771167722</v>
       </c>
       <c r="R15">
-        <v>8.879793261173189</v>
+        <v>125.912139405095</v>
       </c>
       <c r="S15">
-        <v>0.00153950625859873</v>
+        <v>0.002235062016916309</v>
       </c>
       <c r="T15">
-        <v>0.00153950625859873</v>
+        <v>0.003409091957084735</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.35154521840063</v>
+        <v>8.024555666666666</v>
       </c>
       <c r="H16">
-        <v>5.35154521840063</v>
+        <v>24.073667</v>
       </c>
       <c r="I16">
-        <v>0.08705219073864195</v>
+        <v>0.122953948647977</v>
       </c>
       <c r="J16">
-        <v>0.08705219073864195</v>
+        <v>0.1503858189246111</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.531925802148053</v>
+        <v>1.001563</v>
       </c>
       <c r="N16">
-        <v>0.531925802148053</v>
+        <v>3.004689</v>
       </c>
       <c r="O16">
-        <v>0.005669296302273008</v>
+        <v>0.0104429036298341</v>
       </c>
       <c r="P16">
-        <v>0.005669296302273008</v>
+        <v>0.01302284896189067</v>
       </c>
       <c r="Q16">
-        <v>2.846624983029332</v>
+        <v>8.037098047173666</v>
       </c>
       <c r="R16">
-        <v>2.846624983029332</v>
+        <v>72.333882424563</v>
       </c>
       <c r="S16">
-        <v>0.0004935246630593474</v>
+        <v>0.001283996236638395</v>
       </c>
       <c r="T16">
-        <v>0.0004935246630593474</v>
+        <v>0.00195845180586545</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.35154521840063</v>
+        <v>8.024555666666666</v>
       </c>
       <c r="H17">
-        <v>5.35154521840063</v>
+        <v>24.073667</v>
       </c>
       <c r="I17">
-        <v>0.08705219073864195</v>
+        <v>0.122953948647977</v>
       </c>
       <c r="J17">
-        <v>0.08705219073864195</v>
+        <v>0.1503858189246111</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.24420129079091</v>
+        <v>1.365389333333333</v>
       </c>
       <c r="N17">
-        <v>1.24420129079091</v>
+        <v>4.096168</v>
       </c>
       <c r="O17">
-        <v>0.01326077010868691</v>
+        <v>0.014236377766754</v>
       </c>
       <c r="P17">
-        <v>0.01326077010868691</v>
+        <v>0.01775351032553778</v>
       </c>
       <c r="Q17">
-        <v>6.658399468459986</v>
+        <v>10.95664271200622</v>
       </c>
       <c r="R17">
-        <v>6.658399468459986</v>
+        <v>98.60978440805599</v>
       </c>
       <c r="S17">
-        <v>0.001154379088842695</v>
+        <v>0.001750418860866672</v>
       </c>
       <c r="T17">
-        <v>0.001154379088842695</v>
+        <v>0.002669876189092538</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.35154521840063</v>
+        <v>8.024555666666666</v>
       </c>
       <c r="H18">
-        <v>5.35154521840063</v>
+        <v>24.073667</v>
       </c>
       <c r="I18">
-        <v>0.08705219073864195</v>
+        <v>0.122953948647977</v>
       </c>
       <c r="J18">
-        <v>0.08705219073864195</v>
+        <v>0.1503858189246111</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>33.5724741054058</v>
+        <v>34.797061</v>
       </c>
       <c r="N18">
-        <v>33.5724741054058</v>
+        <v>104.391183</v>
       </c>
       <c r="O18">
-        <v>0.3578173920785995</v>
+        <v>0.3628152743506486</v>
       </c>
       <c r="P18">
-        <v>0.3578173920785995</v>
+        <v>0.4524496908538919</v>
       </c>
       <c r="Q18">
-        <v>179.6646132686634</v>
+        <v>279.2309530308956</v>
       </c>
       <c r="R18">
-        <v>179.6646132686634</v>
+        <v>2513.078577278061</v>
       </c>
       <c r="S18">
-        <v>0.03114878786482968</v>
+        <v>0.04460957061121135</v>
       </c>
       <c r="T18">
-        <v>0.03114878786482968</v>
+        <v>0.06804201728124963</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.35154521840063</v>
+        <v>8.024555666666666</v>
       </c>
       <c r="H19">
-        <v>5.35154521840063</v>
+        <v>24.073667</v>
       </c>
       <c r="I19">
-        <v>0.08705219073864195</v>
+        <v>0.122953948647977</v>
       </c>
       <c r="J19">
-        <v>0.08705219073864195</v>
+        <v>0.1503858189246111</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.943905765838942</v>
+        <v>1.127115</v>
       </c>
       <c r="N19">
-        <v>0.943905765838942</v>
+        <v>2.25423</v>
       </c>
       <c r="O19">
-        <v>0.01006020284474834</v>
+        <v>0.01175198497222887</v>
       </c>
       <c r="P19">
-        <v>0.01006020284474834</v>
+        <v>0.00977022807197777</v>
       </c>
       <c r="Q19">
-        <v>5.051354387796175</v>
+        <v>9.044597060234999</v>
       </c>
       <c r="R19">
-        <v>5.051354387796175</v>
+        <v>54.26758236140999</v>
       </c>
       <c r="S19">
-        <v>0.000875762696910461</v>
+        <v>0.001444952956787226</v>
       </c>
       <c r="T19">
-        <v>0.000875762696910461</v>
+        <v>0.001469303749684601</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.97571576169983</v>
+        <v>2.074084</v>
       </c>
       <c r="H20">
-        <v>1.97571576169983</v>
+        <v>6.222252</v>
       </c>
       <c r="I20">
-        <v>0.0321384531595598</v>
+        <v>0.03177955617990281</v>
       </c>
       <c r="J20">
-        <v>0.0321384531595598</v>
+        <v>0.03886979339604968</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>55.8739169059249</v>
+        <v>55.873922</v>
       </c>
       <c r="N20">
-        <v>55.8739169059249</v>
+        <v>111.747844</v>
       </c>
       <c r="O20">
-        <v>0.5955074734654491</v>
+        <v>0.5825754174893317</v>
       </c>
       <c r="P20">
-        <v>0.5955074734654491</v>
+        <v>0.4843347495294592</v>
       </c>
       <c r="Q20">
-        <v>110.3909782989424</v>
+        <v>115.887207637448</v>
       </c>
       <c r="R20">
-        <v>110.3909782989424</v>
+        <v>695.323245824688</v>
       </c>
       <c r="S20">
-        <v>0.01913868904213713</v>
+        <v>0.01851398820913255</v>
       </c>
       <c r="T20">
-        <v>0.01913868904213713</v>
+        <v>0.01882599164873755</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.97571576169983</v>
+        <v>2.074084</v>
       </c>
       <c r="H21">
-        <v>1.97571576169983</v>
+        <v>6.222252</v>
       </c>
       <c r="I21">
-        <v>0.0321384531595598</v>
+        <v>0.03177955617990281</v>
       </c>
       <c r="J21">
-        <v>0.0321384531595598</v>
+        <v>0.03886979339604968</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.659295193964</v>
+        <v>1.743428333333333</v>
       </c>
       <c r="N21">
-        <v>1.659295193964</v>
+        <v>5.230285</v>
       </c>
       <c r="O21">
-        <v>0.01768486520024306</v>
+        <v>0.01817804179120264</v>
       </c>
       <c r="P21">
-        <v>0.01768486520024306</v>
+        <v>0.02266897225724272</v>
       </c>
       <c r="Q21">
-        <v>3.278295668027451</v>
+        <v>3.616016811313334</v>
       </c>
       <c r="R21">
-        <v>3.278295668027451</v>
+        <v>32.54415130182</v>
       </c>
       <c r="S21">
-        <v>0.0005683642118711408</v>
+        <v>0.0005776901003441453</v>
       </c>
       <c r="T21">
-        <v>0.0005683642118711408</v>
+        <v>0.0008811382681398064</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.97571576169983</v>
+        <v>2.074084</v>
       </c>
       <c r="H22">
-        <v>1.97571576169983</v>
+        <v>6.222252</v>
       </c>
       <c r="I22">
-        <v>0.0321384531595598</v>
+        <v>0.03177955617990281</v>
       </c>
       <c r="J22">
-        <v>0.0321384531595598</v>
+        <v>0.03886979339604968</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.531925802148053</v>
+        <v>1.001563</v>
       </c>
       <c r="N22">
-        <v>0.531925802148053</v>
+        <v>3.004689</v>
       </c>
       <c r="O22">
-        <v>0.005669296302273008</v>
+        <v>0.0104429036298341</v>
       </c>
       <c r="P22">
-        <v>0.005669296302273008</v>
+        <v>0.01302284896189067</v>
       </c>
       <c r="Q22">
-        <v>1.050934191358734</v>
+        <v>2.077325793292</v>
       </c>
       <c r="R22">
-        <v>1.050934191358734</v>
+        <v>18.695932139628</v>
       </c>
       <c r="S22">
-        <v>0.0001822024136582666</v>
+        <v>0.0003318708425856238</v>
       </c>
       <c r="T22">
-        <v>0.0001822024136582666</v>
+        <v>0.0005061954485766505</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.97571576169983</v>
+        <v>2.074084</v>
       </c>
       <c r="H23">
-        <v>1.97571576169983</v>
+        <v>6.222252</v>
       </c>
       <c r="I23">
-        <v>0.0321384531595598</v>
+        <v>0.03177955617990281</v>
       </c>
       <c r="J23">
-        <v>0.0321384531595598</v>
+        <v>0.03886979339604968</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.24420129079091</v>
+        <v>1.365389333333333</v>
       </c>
       <c r="N23">
-        <v>1.24420129079091</v>
+        <v>4.096168</v>
       </c>
       <c r="O23">
-        <v>0.01326077010868691</v>
+        <v>0.014236377766754</v>
       </c>
       <c r="P23">
-        <v>0.01326077010868691</v>
+        <v>0.01775351032553778</v>
       </c>
       <c r="Q23">
-        <v>2.458188100942874</v>
+        <v>2.831932170037333</v>
       </c>
       <c r="R23">
-        <v>2.458188100942874</v>
+        <v>25.487389530336</v>
       </c>
       <c r="S23">
-        <v>0.000426180638997725</v>
+        <v>0.0004524257670368779</v>
       </c>
       <c r="T23">
-        <v>0.000426180638997725</v>
+        <v>0.0006900752784082883</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.97571576169983</v>
+        <v>2.074084</v>
       </c>
       <c r="H24">
-        <v>1.97571576169983</v>
+        <v>6.222252</v>
       </c>
       <c r="I24">
-        <v>0.0321384531595598</v>
+        <v>0.03177955617990281</v>
       </c>
       <c r="J24">
-        <v>0.0321384531595598</v>
+        <v>0.03886979339604968</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>33.5724741054058</v>
+        <v>34.797061</v>
       </c>
       <c r="N24">
-        <v>33.5724741054058</v>
+        <v>104.391183</v>
       </c>
       <c r="O24">
-        <v>0.3578173920785995</v>
+        <v>0.3628152743506486</v>
       </c>
       <c r="P24">
-        <v>0.3578173920785995</v>
+        <v>0.4524496908538919</v>
       </c>
       <c r="Q24">
-        <v>66.32966624930964</v>
+        <v>72.172027467124</v>
       </c>
       <c r="R24">
-        <v>66.32966624930964</v>
+        <v>649.548247204116</v>
       </c>
       <c r="S24">
-        <v>0.01149969749499392</v>
+        <v>0.01153010839415329</v>
       </c>
       <c r="T24">
-        <v>0.01149969749499392</v>
+        <v>0.01758662600559733</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.97571576169983</v>
+        <v>2.074084</v>
       </c>
       <c r="H25">
-        <v>1.97571576169983</v>
+        <v>6.222252</v>
       </c>
       <c r="I25">
-        <v>0.0321384531595598</v>
+        <v>0.03177955617990281</v>
       </c>
       <c r="J25">
-        <v>0.0321384531595598</v>
+        <v>0.03886979339604968</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.943905765838942</v>
+        <v>1.127115</v>
       </c>
       <c r="N25">
-        <v>0.943905765838942</v>
+        <v>2.25423</v>
       </c>
       <c r="O25">
-        <v>0.01006020284474834</v>
+        <v>0.01175198497222887</v>
       </c>
       <c r="P25">
-        <v>0.01006020284474834</v>
+        <v>0.00977022807197777</v>
       </c>
       <c r="Q25">
-        <v>1.864889499127347</v>
+        <v>2.33773118766</v>
       </c>
       <c r="R25">
-        <v>1.864889499127347</v>
+        <v>14.02638712596</v>
       </c>
       <c r="S25">
-        <v>0.0003233193579016148</v>
+        <v>0.0003734728666503209</v>
       </c>
       <c r="T25">
-        <v>0.0003233193579016148</v>
+        <v>0.0003797667465900607</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>12.0551823584393</v>
+        <v>12.458139</v>
       </c>
       <c r="H26">
-        <v>12.0551823584393</v>
+        <v>37.374417</v>
       </c>
       <c r="I26">
-        <v>0.1960985082304142</v>
+        <v>0.190886255449412</v>
       </c>
       <c r="J26">
-        <v>0.1960985082304142</v>
+        <v>0.233474289869296</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>55.8739169059249</v>
+        <v>55.873922</v>
       </c>
       <c r="N26">
-        <v>55.8739169059249</v>
+        <v>111.747844</v>
       </c>
       <c r="O26">
-        <v>0.5955074734654491</v>
+        <v>0.5825754174893317</v>
       </c>
       <c r="P26">
-        <v>0.5955074734654491</v>
+        <v>0.4843347495294592</v>
       </c>
       <c r="Q26">
-        <v>673.5702573812092</v>
+        <v>696.0850867511581</v>
       </c>
       <c r="R26">
-        <v>673.5702573812092</v>
+        <v>4176.510520506949</v>
       </c>
       <c r="S26">
-        <v>0.1167781271866375</v>
+        <v>0.1112056399614164</v>
       </c>
       <c r="T26">
-        <v>0.1167781271866375</v>
+        <v>0.1130797117054138</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>12.0551823584393</v>
+        <v>12.458139</v>
       </c>
       <c r="H27">
-        <v>12.0551823584393</v>
+        <v>37.374417</v>
       </c>
       <c r="I27">
-        <v>0.1960985082304142</v>
+        <v>0.190886255449412</v>
       </c>
       <c r="J27">
-        <v>0.1960985082304142</v>
+        <v>0.233474289869296</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>1.659295193964</v>
+        <v>1.743428333333333</v>
       </c>
       <c r="N27">
-        <v>1.659295193964</v>
+        <v>5.230285</v>
       </c>
       <c r="O27">
-        <v>0.01768486520024306</v>
+        <v>0.01817804179120264</v>
       </c>
       <c r="P27">
-        <v>0.01768486520024306</v>
+        <v>0.02266897225724272</v>
       </c>
       <c r="Q27">
-        <v>20.00310614971793</v>
+        <v>21.719872513205</v>
       </c>
       <c r="R27">
-        <v>20.00310614971793</v>
+        <v>195.478852618845</v>
       </c>
       <c r="S27">
-        <v>0.003467975684023629</v>
+        <v>0.003469938328925593</v>
       </c>
       <c r="T27">
-        <v>0.003467975684023629</v>
+        <v>0.005292622199826516</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>12.0551823584393</v>
+        <v>12.458139</v>
       </c>
       <c r="H28">
-        <v>12.0551823584393</v>
+        <v>37.374417</v>
       </c>
       <c r="I28">
-        <v>0.1960985082304142</v>
+        <v>0.190886255449412</v>
       </c>
       <c r="J28">
-        <v>0.1960985082304142</v>
+        <v>0.233474289869296</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.531925802148053</v>
+        <v>1.001563</v>
       </c>
       <c r="N28">
-        <v>0.531925802148053</v>
+        <v>3.004689</v>
       </c>
       <c r="O28">
-        <v>0.005669296302273008</v>
+        <v>0.0104429036298341</v>
       </c>
       <c r="P28">
-        <v>0.005669296302273008</v>
+        <v>0.01302284896189067</v>
       </c>
       <c r="Q28">
-        <v>6.412462546053882</v>
+        <v>12.477611071257</v>
       </c>
       <c r="R28">
-        <v>6.412462546053882</v>
+        <v>112.298499641313</v>
       </c>
       <c r="S28">
-        <v>0.00111174054759194</v>
+        <v>0.001993406769918104</v>
       </c>
       <c r="T28">
-        <v>0.00111174054759194</v>
+        <v>0.003040500413452524</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>12.0551823584393</v>
+        <v>12.458139</v>
       </c>
       <c r="H29">
-        <v>12.0551823584393</v>
+        <v>37.374417</v>
       </c>
       <c r="I29">
-        <v>0.1960985082304142</v>
+        <v>0.190886255449412</v>
       </c>
       <c r="J29">
-        <v>0.1960985082304142</v>
+        <v>0.233474289869296</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.24420129079091</v>
+        <v>1.365389333333333</v>
       </c>
       <c r="N29">
-        <v>1.24420129079091</v>
+        <v>4.096168</v>
       </c>
       <c r="O29">
-        <v>0.01326077010868691</v>
+        <v>0.014236377766754</v>
       </c>
       <c r="P29">
-        <v>0.01326077010868691</v>
+        <v>0.01775351032553778</v>
       </c>
       <c r="Q29">
-        <v>14.99907345108998</v>
+        <v>17.010210103784</v>
       </c>
       <c r="R29">
-        <v>14.99907345108998</v>
+        <v>153.091890934056</v>
       </c>
       <c r="S29">
-        <v>0.00260041723629997</v>
+        <v>0.002717528843058932</v>
       </c>
       <c r="T29">
-        <v>0.00260041723629997</v>
+        <v>0.004144988215942148</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>12.0551823584393</v>
+        <v>12.458139</v>
       </c>
       <c r="H30">
-        <v>12.0551823584393</v>
+        <v>37.374417</v>
       </c>
       <c r="I30">
-        <v>0.1960985082304142</v>
+        <v>0.190886255449412</v>
       </c>
       <c r="J30">
-        <v>0.1960985082304142</v>
+        <v>0.233474289869296</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>33.5724741054058</v>
+        <v>34.797061</v>
       </c>
       <c r="N30">
-        <v>33.5724741054058</v>
+        <v>104.391183</v>
       </c>
       <c r="O30">
-        <v>0.3578173920785995</v>
+        <v>0.3628152743506486</v>
       </c>
       <c r="P30">
-        <v>0.3578173920785995</v>
+        <v>0.4524496908538919</v>
       </c>
       <c r="Q30">
-        <v>404.7222975646483</v>
+        <v>433.506622729479</v>
       </c>
       <c r="R30">
-        <v>404.7222975646483</v>
+        <v>3901.559604565311</v>
       </c>
       <c r="S30">
-        <v>0.07016745680551058</v>
+        <v>0.06925644914064641</v>
       </c>
       <c r="T30">
-        <v>0.07016745680551058</v>
+        <v>0.1056353702736949</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>12.0551823584393</v>
+        <v>12.458139</v>
       </c>
       <c r="H31">
-        <v>12.0551823584393</v>
+        <v>37.374417</v>
       </c>
       <c r="I31">
-        <v>0.1960985082304142</v>
+        <v>0.190886255449412</v>
       </c>
       <c r="J31">
-        <v>0.1960985082304142</v>
+        <v>0.233474289869296</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.943905765838942</v>
+        <v>1.127115</v>
       </c>
       <c r="N31">
-        <v>0.943905765838942</v>
+        <v>2.25423</v>
       </c>
       <c r="O31">
-        <v>0.01006020284474834</v>
+        <v>0.01175198497222887</v>
       </c>
       <c r="P31">
-        <v>0.01006020284474834</v>
+        <v>0.00977022807197777</v>
       </c>
       <c r="Q31">
-        <v>11.37895613637075</v>
+        <v>14.041755338985</v>
       </c>
       <c r="R31">
-        <v>11.37895613637075</v>
+        <v>84.25053203390999</v>
       </c>
       <c r="S31">
-        <v>0.001972790770350518</v>
+        <v>0.002243292405446531</v>
       </c>
       <c r="T31">
-        <v>0.001972790770350518</v>
+        <v>0.002281097060966071</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>20.3785735183928</v>
+        <v>20.45175</v>
       </c>
       <c r="H32">
-        <v>20.3785735183928</v>
+        <v>40.9035</v>
       </c>
       <c r="I32">
-        <v>0.3314929420394111</v>
+        <v>0.3133660633331761</v>
       </c>
       <c r="J32">
-        <v>0.3314929420394111</v>
+        <v>0.2555201226461606</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>55.8739169059249</v>
+        <v>55.873922</v>
       </c>
       <c r="N32">
-        <v>55.8739169059249</v>
+        <v>111.747844</v>
       </c>
       <c r="O32">
-        <v>0.5955074734654491</v>
+        <v>0.5825754174893317</v>
       </c>
       <c r="P32">
-        <v>0.5955074734654491</v>
+        <v>0.4843347495294592</v>
       </c>
       <c r="Q32">
-        <v>1138.630723427961</v>
+        <v>1142.7194842635</v>
       </c>
       <c r="R32">
-        <v>1138.630723427961</v>
+        <v>4570.877937054001</v>
       </c>
       <c r="S32">
-        <v>0.1974065243855183</v>
+        <v>0.1825593651733134</v>
       </c>
       <c r="T32">
-        <v>0.1974065243855183</v>
+        <v>0.1237572746015649</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>20.3785735183928</v>
+        <v>20.45175</v>
       </c>
       <c r="H33">
-        <v>20.3785735183928</v>
+        <v>40.9035</v>
       </c>
       <c r="I33">
-        <v>0.3314929420394111</v>
+        <v>0.3133660633331761</v>
       </c>
       <c r="J33">
-        <v>0.3314929420394111</v>
+        <v>0.2555201226461606</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>1.659295193964</v>
+        <v>1.743428333333333</v>
       </c>
       <c r="N33">
-        <v>1.659295193964</v>
+        <v>5.230285</v>
       </c>
       <c r="O33">
-        <v>0.01768486520024306</v>
+        <v>0.01817804179120264</v>
       </c>
       <c r="P33">
-        <v>0.01768486520024306</v>
+        <v>0.02266897225724272</v>
       </c>
       <c r="Q33">
-        <v>33.81406909891121</v>
+        <v>35.65616041625</v>
       </c>
       <c r="R33">
-        <v>33.81406909891121</v>
+        <v>213.9369624975</v>
       </c>
       <c r="S33">
-        <v>0.005862407994798972</v>
+        <v>0.005696381395215128</v>
       </c>
       <c r="T33">
-        <v>0.005862407994798972</v>
+        <v>0.005792378571433072</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>20.3785735183928</v>
+        <v>20.45175</v>
       </c>
       <c r="H34">
-        <v>20.3785735183928</v>
+        <v>40.9035</v>
       </c>
       <c r="I34">
-        <v>0.3314929420394111</v>
+        <v>0.3133660633331761</v>
       </c>
       <c r="J34">
-        <v>0.3314929420394111</v>
+        <v>0.2555201226461606</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.531925802148053</v>
+        <v>1.001563</v>
       </c>
       <c r="N34">
-        <v>0.531925802148053</v>
+        <v>3.004689</v>
       </c>
       <c r="O34">
-        <v>0.005669296302273008</v>
+        <v>0.0104429036298341</v>
       </c>
       <c r="P34">
-        <v>0.005669296302273008</v>
+        <v>0.01302284896189067</v>
       </c>
       <c r="Q34">
-        <v>10.83988906540416</v>
+        <v>20.48371608525</v>
       </c>
       <c r="R34">
-        <v>10.83988906540416</v>
+        <v>122.9022965115</v>
       </c>
       <c r="S34">
-        <v>0.001879331710533634</v>
+        <v>0.003272451600248848</v>
       </c>
       <c r="T34">
-        <v>0.001879331710533634</v>
+        <v>0.00332759996394473</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>20.3785735183928</v>
+        <v>20.45175</v>
       </c>
       <c r="H35">
-        <v>20.3785735183928</v>
+        <v>40.9035</v>
       </c>
       <c r="I35">
-        <v>0.3314929420394111</v>
+        <v>0.3133660633331761</v>
       </c>
       <c r="J35">
-        <v>0.3314929420394111</v>
+        <v>0.2555201226461606</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.24420129079091</v>
+        <v>1.365389333333333</v>
       </c>
       <c r="N35">
-        <v>1.24420129079091</v>
+        <v>4.096168</v>
       </c>
       <c r="O35">
-        <v>0.01326077010868691</v>
+        <v>0.014236377766754</v>
       </c>
       <c r="P35">
-        <v>0.01326077010868691</v>
+        <v>0.01775351032553778</v>
       </c>
       <c r="Q35">
-        <v>25.35504747606177</v>
+        <v>27.924601298</v>
       </c>
       <c r="R35">
-        <v>25.35504747606177</v>
+        <v>167.547607788</v>
       </c>
       <c r="S35">
-        <v>0.004395851697036906</v>
+        <v>0.004461197656891653</v>
       </c>
       <c r="T35">
-        <v>0.004395851697036906</v>
+        <v>0.004536379135781293</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>20.3785735183928</v>
+        <v>20.45175</v>
       </c>
       <c r="H36">
-        <v>20.3785735183928</v>
+        <v>40.9035</v>
       </c>
       <c r="I36">
-        <v>0.3314929420394111</v>
+        <v>0.3133660633331761</v>
       </c>
       <c r="J36">
-        <v>0.3314929420394111</v>
+        <v>0.2555201226461606</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>33.5724741054058</v>
+        <v>34.797061</v>
       </c>
       <c r="N36">
-        <v>33.5724741054058</v>
+        <v>104.391183</v>
       </c>
       <c r="O36">
-        <v>0.3578173920785995</v>
+        <v>0.3628152743506486</v>
       </c>
       <c r="P36">
-        <v>0.3578173920785995</v>
+        <v>0.4524496908538919</v>
       </c>
       <c r="Q36">
-        <v>684.1591317513506</v>
+        <v>711.66079230675</v>
       </c>
       <c r="R36">
-        <v>684.1591317513506</v>
+        <v>4269.9647538405</v>
       </c>
       <c r="S36">
-        <v>0.1186139400130044</v>
+        <v>0.113693994240409</v>
       </c>
       <c r="T36">
-        <v>0.1186139400130044</v>
+        <v>0.1156100004982039</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>20.3785735183928</v>
+        <v>20.45175</v>
       </c>
       <c r="H37">
-        <v>20.3785735183928</v>
+        <v>40.9035</v>
       </c>
       <c r="I37">
-        <v>0.3314929420394111</v>
+        <v>0.3133660633331761</v>
       </c>
       <c r="J37">
-        <v>0.3314929420394111</v>
+        <v>0.2555201226461606</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.943905765838942</v>
+        <v>1.127115</v>
       </c>
       <c r="N37">
-        <v>0.943905765838942</v>
+        <v>2.25423</v>
       </c>
       <c r="O37">
-        <v>0.01006020284474834</v>
+        <v>0.01175198497222887</v>
       </c>
       <c r="P37">
-        <v>0.01006020284474834</v>
+        <v>0.00977022807197777</v>
       </c>
       <c r="Q37">
-        <v>19.23545304358374</v>
+        <v>23.05147420125</v>
       </c>
       <c r="R37">
-        <v>19.23545304358374</v>
+        <v>92.20589680499999</v>
       </c>
       <c r="S37">
-        <v>0.00333488623851888</v>
+        <v>0.003682673267098006</v>
       </c>
       <c r="T37">
-        <v>0.00333488623851888</v>
+        <v>0.002496489875232721</v>
       </c>
     </row>
   </sheetData>
